--- a/cs-models/eai/dam/nga.gov/search.xlsx
+++ b/cs-models/eai/dam/nga.gov/search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\er\NGA Search Mappings\dam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradeva\Desktop\CS\dam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>cultObj:title</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>cultObj:nga:accessionNumber</t>
+  </si>
+  <si>
+    <t>(system)API Search Form Visibility</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +441,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -462,8 +471,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -476,8 +488,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -490,8 +505,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -504,8 +522,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -518,8 +539,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -532,8 +556,11 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="C8" s="3"/>
     </row>
